--- a/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
+++ b/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aspiteri/Development/Github/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A4D4B7-60D1-D14E-B24F-766D23E1B3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A6BB02-8A67-5244-AA7C-410AA4623A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36920" yWindow="-21100" windowWidth="21600" windowHeight="37900" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="26660" activeTab="2" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project Budget" sheetId="1" r:id="rId1"/>
+    <sheet name="Change Requests" sheetId="2" r:id="rId2"/>
+    <sheet name="Contract Information" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,30 +38,351 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>{#r=d.report[i]}</t>
-  </si>
-  <si>
-    <t>{#r1=d.report[i+1]}</t>
-  </si>
-  <si>
-    <t>{#t=d.report_totals[i]}</t>
-  </si>
-  <si>
-    <t>{#date=d.date}</t>
-  </si>
-  <si>
-    <t>Project #</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>{#fy=d.fiscal_year}</t>
-  </si>
-  <si>
-    <t>Project ________ for {$fy} as of {$date}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+  <si>
+    <t>Project Information:</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>Deliverable Name</t>
+  </si>
+  <si>
+    <t>Current Budget</t>
+  </si>
+  <si>
+    <t>Recovery Amount</t>
+  </si>
+  <si>
+    <t>Recovered To Date</t>
+  </si>
+  <si>
+    <t>Balance Remaining</t>
+  </si>
+  <si>
+    <t>Fiscal Total</t>
+  </si>
+  <si>
+    <t>Project Total</t>
+  </si>
+  <si>
+    <t>‎</t>
+  </si>
+  <si>
+    <t>Bdgt</t>
+  </si>
+  <si>
+    <t>Schd</t>
+  </si>
+  <si>
+    <t>Overall Prj</t>
+  </si>
+  <si>
+    <r>
+      <t>Project Manager:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportProjectInfo.project_manager}</t>
+    </r>
+  </si>
+  <si>
+    <t>{d.reportStatus.team_health}</t>
+  </si>
+  <si>
+    <t>{d.reportStatus.budget_health}</t>
+  </si>
+  <si>
+    <t>{d.reportStatus.schedule_health}</t>
+  </si>
+  <si>
+    <t>{d.reportStatus.project_health}</t>
+  </si>
+  <si>
+    <r>
+      <t>Ministry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>: {d.reportProjectInfo.ministry_name}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Funding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportProjectInfo.project_funding}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recovery Status:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportProjectInfo.recovery_status}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportProjectInfo.project_description}</t>
+    </r>
+  </si>
+  <si>
+    <t>{d.reportDeliverablesGrandTotals.grand_total_cb}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverablesGrandTotals.grand_total_ra}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverablesGrandTotals.grand_total_rtd}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverablesGrandTotals.grand_total_br}</t>
+  </si>
+  <si>
+    <t>Change Requests:</t>
+  </si>
+  <si>
+    <t>CR#</t>
+  </si>
+  <si>
+    <t>Initiated By</t>
+  </si>
+  <si>
+    <t>Initiation Date</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i].version}</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i].initiated_by}</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i].summary}</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i].type}</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i+1]}</t>
+  </si>
+  <si>
+    <t>Contract Information:</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Contract Amt</t>
+  </si>
+  <si>
+    <t>Invoiced To Date</t>
+  </si>
+  <si>
+    <t>Descoped</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].fiscal_year}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].balance_remaining}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i+1]}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionTotals.total_br}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].fiscal_year}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].deliverable_name}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].current_budget}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].recovery_amount}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].recovered_to_date}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i].balance_remaining}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionInfo[i+1]}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionTotals.total_cb}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionTotals.total_ra}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionTotals.total_rtd}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i].sectionTotals.total_br}</t>
+  </si>
+  <si>
+    <t>{d.reportDeliverableWithTotals[i+1].sectionTotals}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].co_number}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].co_version}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].total_contract_amount}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].invoiced_to_date}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].descoped}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionTotals.total_ds}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionTotals.total_itd}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionTotals.total_ca}</t>
+  </si>
+  <si>
+    <t>Total for {d.reportContractWithTotals[i].sectionTotals.fiscal_year}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {d.reportContractWithTotals[i+1].sectionTotals}</t>
+  </si>
+  <si>
+    <t>{d.reportContractInfoGrandTotals.grand_total_ca}</t>
+  </si>
+  <si>
+    <t>{d.reportContractInfoGrandTotals.grand_total_itd}</t>
+  </si>
+  <si>
+    <t>{d.reportContractInfoGrandTotals.grand_total_br}</t>
+  </si>
+  <si>
+    <t>{d.reportContractInfoGrandTotals.grand_total_ds}</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].subcontractors}{d.reportContractWithTotals[i].sectionInfo[i].supplier_name}</t>
+  </si>
+  <si>
+    <t>{d.reportProjectInfo.project_number}:{d.reportProjectInfo.project_name}</t>
+  </si>
+  <si>
+    <t>Health:             Team</t>
+  </si>
+  <si>
+    <t>{d.reportContractWithTotals[i].sectionInfo[i].end_date:formatD('DD-MMM-YY')}</t>
+  </si>
+  <si>
+    <t>{d.reportChangeRequest[i].initiation_date:formatD('DD-MMM-YY')}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Budget Summary Report as of {d.reportCurrentDate:formatD('DD-MMM-YY')}
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Start Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportProjectInfo.agreement_start_date:formatD('DD-MMM-YY')}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>End Date:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t xml:space="preserve"> {d.reportProjectInfo.agreement_end_date: formatD('DD-MMM-YY')}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Latest Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>{d.reportStatus.status_date:formatD(DD-MMM-YY)}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t xml:space="preserve">     Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="BC Sans Regular"/>
+      </rPr>
+      <t>: {d.reportStatus.project_phase}</t>
+    </r>
+  </si>
+  <si>
+    <t>Supplier/
+Subcontractor</t>
   </si>
 </sst>
 </file>
@@ -69,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,34 +402,68 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="BCSans-Regular"/>
+      <color theme="0"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="BC Sans Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="BCSans-Regular"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="BCSans-Regular"/>
+      <sz val="12"/>
+      <name val="BC Sans Regular"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="BCSans-Regular"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="BCSans-Regular"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="BCSans-Regular"/>
+      <name val="BC Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BC Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="BC Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BC Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="BC Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="BC Sans Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +482,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0D3DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -135,42 +510,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -178,22 +521,107 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFA5A5A5"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,55 +629,457 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -273,15 +1103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>166077</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>78154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1561691</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>680356</xdr:rowOff>
+      <xdr:colOff>377857</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,8 +1140,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2411054" cy="680356"/>
+          <a:off x="166077" y="78154"/>
+          <a:ext cx="1039420" cy="292142"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -623,113 +1453,1337 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="C2:I2"/>
+    <sheetView zoomScale="89" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="9" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22" style="12" customWidth="1"/>
+    <col min="4" max="4" width="5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12" style="6" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="6" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" style="6"/>
+    <col min="14" max="14" width="55.1640625" style="6" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="19" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1">
+      <c r="A5" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="179" customHeight="1">
+      <c r="A7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="40" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" s="11" customFormat="1">
+      <c r="A14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="15"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="15"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="15"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="6"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="D64" s="38"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="4:8">
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+    </row>
+    <row r="66" spans="4:8">
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+    </row>
+    <row r="67" spans="4:8">
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+    </row>
+    <row r="68" spans="4:8">
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+    </row>
+    <row r="69" spans="4:8">
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+    </row>
+    <row r="70" spans="4:8">
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+    </row>
+    <row r="71" spans="4:8">
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+    </row>
+    <row r="72" spans="4:8">
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+    </row>
+    <row r="73" spans="4:8">
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+    </row>
+    <row r="74" spans="4:8">
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+    </row>
+    <row r="75" spans="4:8">
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+    </row>
+    <row r="76" spans="4:8">
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+    </row>
+    <row r="77" spans="4:8">
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+    </row>
+    <row r="78" spans="4:8">
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+    </row>
+    <row r="79" spans="4:8">
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+    </row>
+    <row r="80" spans="4:8">
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+    </row>
+    <row r="81" spans="4:8">
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+    </row>
+    <row r="82" spans="4:8">
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+    </row>
+    <row r="83" spans="4:8">
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+    </row>
+    <row r="84" spans="4:8">
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+    </row>
+    <row r="85" spans="4:8">
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+    </row>
+    <row r="86" spans="4:8">
+      <c r="D86" s="38"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+    </row>
+    <row r="87" spans="4:8">
+      <c r="D87" s="38"/>
+      <c r="E87" s="38"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+    </row>
+    <row r="88" spans="4:8">
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+    </row>
+    <row r="89" spans="4:8">
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+    </row>
+    <row r="90" spans="4:8">
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+    </row>
+    <row r="91" spans="4:8">
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+    </row>
+    <row r="92" spans="4:8">
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+    </row>
+    <row r="93" spans="4:8">
+      <c r="D93" s="38"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+    </row>
+    <row r="94" spans="4:8">
+      <c r="D94" s="38"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+    </row>
+    <row r="95" spans="4:8">
+      <c r="D95" s="38"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+    </row>
+    <row r="96" spans="4:8">
+      <c r="D96" s="38"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+    </row>
+    <row r="97" spans="4:8">
+      <c r="D97" s="38"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+    </row>
+    <row r="98" spans="4:8">
+      <c r="D98" s="38"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+    </row>
+    <row r="99" spans="4:8">
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+    </row>
+    <row r="100" spans="4:8">
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+    </row>
+    <row r="101" spans="4:8">
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+    </row>
+    <row r="102" spans="4:8">
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+    </row>
+    <row r="103" spans="4:8">
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
+  <mergeCells count="251">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="19" priority="18" stopIfTrue="1">
+      <formula>$D$8="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>$D$8="Complete"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+      <formula>$D$8="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="21" stopIfTrue="1">
+      <formula>$D$8="Yellow"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22" stopIfTrue="1">
+      <formula>$D$8="Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+      <formula>$D$8="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>$D$8="Complete"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
+      <formula>$D$8="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+      <formula>$D$8="Yellow"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+      <formula>$D$8="Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
+      <formula>$D$8="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>$D$8="Complete"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+      <formula>$D$8="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>$D$8="Yellow"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>$D$8="Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+      <formula>$D$8="Not Started"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>$D$8="Complete"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+      <formula>$D$8="Green"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+      <formula>$D$8="Yellow"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>$D$8="Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -738,4 +2792,2107 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1764C59A-E2AA-9847-9567-3B4073A7192B}">
+  <dimension ref="A1:N143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="18.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="52"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" ht="114" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="4:10">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+    </row>
+    <row r="19" spans="4:10">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="4:10">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="4:10">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="4:10">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="4:10">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="4:10">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="4:10">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="4:10">
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+    </row>
+    <row r="38" spans="4:10">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="4:10">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+    </row>
+    <row r="40" spans="4:10">
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+    </row>
+    <row r="41" spans="4:10">
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="4:10">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+    </row>
+    <row r="43" spans="4:10">
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+    </row>
+    <row r="44" spans="4:10">
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+    </row>
+    <row r="45" spans="4:10">
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+    </row>
+    <row r="46" spans="4:10">
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+    </row>
+    <row r="47" spans="4:10">
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+    </row>
+    <row r="50" spans="4:10">
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+    </row>
+    <row r="51" spans="4:10">
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+    </row>
+    <row r="52" spans="4:10">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+    </row>
+    <row r="53" spans="4:10">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+    </row>
+    <row r="55" spans="4:10">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+    </row>
+    <row r="56" spans="4:10">
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+    </row>
+    <row r="58" spans="4:10">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="4:10">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+    </row>
+    <row r="60" spans="4:10">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+    </row>
+    <row r="61" spans="4:10">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+    </row>
+    <row r="62" spans="4:10">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+    </row>
+    <row r="63" spans="4:10">
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+    </row>
+    <row r="64" spans="4:10">
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+    </row>
+    <row r="65" spans="4:10">
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+    </row>
+    <row r="66" spans="4:10">
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+    </row>
+    <row r="67" spans="4:10">
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+    </row>
+    <row r="68" spans="4:10">
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+    </row>
+    <row r="69" spans="4:10">
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+    </row>
+    <row r="70" spans="4:10">
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+    </row>
+    <row r="71" spans="4:10">
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+    </row>
+    <row r="72" spans="4:10">
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+    </row>
+    <row r="74" spans="4:10">
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+    </row>
+    <row r="75" spans="4:10">
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+    </row>
+    <row r="76" spans="4:10">
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+    </row>
+    <row r="77" spans="4:10">
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+    </row>
+    <row r="78" spans="4:10">
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+    </row>
+    <row r="79" spans="4:10">
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+    </row>
+    <row r="80" spans="4:10">
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+    </row>
+    <row r="81" spans="4:10">
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+    </row>
+    <row r="82" spans="4:10">
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+    </row>
+    <row r="83" spans="4:10">
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+    </row>
+    <row r="84" spans="4:10">
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+    </row>
+    <row r="85" spans="4:10">
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+    </row>
+    <row r="86" spans="4:10">
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+    </row>
+    <row r="87" spans="4:10">
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+    </row>
+    <row r="88" spans="4:10">
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+    </row>
+    <row r="89" spans="4:10">
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+    </row>
+    <row r="90" spans="4:10">
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+    </row>
+    <row r="91" spans="4:10">
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+    </row>
+    <row r="92" spans="4:10">
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+    </row>
+    <row r="93" spans="4:10">
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+    </row>
+    <row r="94" spans="4:10">
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+    </row>
+    <row r="95" spans="4:10">
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+    </row>
+    <row r="96" spans="4:10">
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+    </row>
+    <row r="97" spans="4:10">
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+    </row>
+    <row r="98" spans="4:10">
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+    </row>
+    <row r="99" spans="4:10">
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+    </row>
+    <row r="100" spans="4:10">
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+    </row>
+    <row r="101" spans="4:10">
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+    </row>
+    <row r="102" spans="4:10">
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+    </row>
+    <row r="103" spans="4:10">
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+    </row>
+    <row r="104" spans="4:10">
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="51"/>
+      <c r="H104" s="51"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+    </row>
+    <row r="105" spans="4:10">
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+    </row>
+    <row r="106" spans="4:10">
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="51"/>
+      <c r="H106" s="51"/>
+      <c r="I106" s="51"/>
+      <c r="J106" s="51"/>
+    </row>
+    <row r="107" spans="4:10">
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+    </row>
+    <row r="108" spans="4:10">
+      <c r="D108" s="51"/>
+      <c r="E108" s="51"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+    </row>
+    <row r="109" spans="4:10">
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+    </row>
+    <row r="110" spans="4:10">
+      <c r="D110" s="51"/>
+      <c r="E110" s="51"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+    </row>
+    <row r="111" spans="4:10">
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+    </row>
+    <row r="112" spans="4:10">
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+    </row>
+    <row r="113" spans="4:10">
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+    </row>
+    <row r="114" spans="4:10">
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+    </row>
+    <row r="115" spans="4:10">
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+    </row>
+    <row r="116" spans="4:10">
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+    </row>
+    <row r="117" spans="4:10">
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+    </row>
+    <row r="119" spans="4:10">
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+    </row>
+    <row r="121" spans="4:10">
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+    </row>
+    <row r="122" spans="4:10">
+      <c r="D122" s="51"/>
+      <c r="E122" s="51"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+    </row>
+    <row r="123" spans="4:10">
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+    </row>
+    <row r="124" spans="4:10">
+      <c r="D124" s="51"/>
+      <c r="E124" s="51"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="51"/>
+      <c r="H124" s="51"/>
+      <c r="I124" s="51"/>
+      <c r="J124" s="51"/>
+    </row>
+    <row r="125" spans="4:10">
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+    </row>
+    <row r="126" spans="4:10">
+      <c r="D126" s="51"/>
+      <c r="E126" s="51"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="51"/>
+      <c r="H126" s="51"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="51"/>
+    </row>
+    <row r="127" spans="4:10">
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+    </row>
+    <row r="128" spans="4:10">
+      <c r="D128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+    </row>
+    <row r="129" spans="4:10">
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+    </row>
+    <row r="130" spans="4:10">
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+    </row>
+    <row r="131" spans="4:10">
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+    </row>
+    <row r="132" spans="4:10">
+      <c r="D132" s="51"/>
+      <c r="E132" s="51"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="51"/>
+      <c r="H132" s="51"/>
+      <c r="I132" s="51"/>
+      <c r="J132" s="51"/>
+    </row>
+    <row r="133" spans="4:10">
+      <c r="D133" s="51"/>
+      <c r="E133" s="51"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="51"/>
+      <c r="H133" s="51"/>
+      <c r="I133" s="51"/>
+      <c r="J133" s="51"/>
+    </row>
+    <row r="134" spans="4:10">
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="51"/>
+      <c r="H134" s="51"/>
+      <c r="I134" s="51"/>
+      <c r="J134" s="51"/>
+    </row>
+    <row r="135" spans="4:10">
+      <c r="D135" s="51"/>
+      <c r="E135" s="51"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="51"/>
+      <c r="H135" s="51"/>
+      <c r="I135" s="51"/>
+      <c r="J135" s="51"/>
+    </row>
+    <row r="136" spans="4:10">
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+    </row>
+    <row r="137" spans="4:10">
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="51"/>
+      <c r="H137" s="51"/>
+      <c r="I137" s="51"/>
+      <c r="J137" s="51"/>
+    </row>
+    <row r="138" spans="4:10">
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="51"/>
+      <c r="H138" s="51"/>
+      <c r="I138" s="51"/>
+      <c r="J138" s="51"/>
+    </row>
+    <row r="139" spans="4:10">
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
+      <c r="I139" s="51"/>
+      <c r="J139" s="51"/>
+    </row>
+    <row r="140" spans="4:10">
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="51"/>
+    </row>
+    <row r="141" spans="4:10">
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="51"/>
+      <c r="H141" s="51"/>
+      <c r="I141" s="51"/>
+      <c r="J141" s="51"/>
+    </row>
+    <row r="142" spans="4:10">
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+    </row>
+    <row r="143" spans="4:10">
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="289">
+    <mergeCell ref="G135:J135"/>
+    <mergeCell ref="G136:J136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J140"/>
+    <mergeCell ref="G141:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="G132:J132"/>
+    <mergeCell ref="G133:J133"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="G113:J113"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="D98:F98"/>
+    <mergeCell ref="D99:F99"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="D131:F131"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A67C196-344E-1041-BEA5-C585467D34BD}">
+  <dimension ref="A1:I99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9" ht="43" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19" customHeight="1">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" customHeight="1" thickBot="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" ht="19" customHeight="1">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1">
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" ht="19" customHeight="1">
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" customHeight="1">
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" customHeight="1">
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+    </row>
+    <row r="14" spans="1:9" ht="19" customHeight="1">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+    </row>
+    <row r="15" spans="1:9" ht="19" customHeight="1">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" ht="19" customHeight="1">
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+    </row>
+    <row r="17" spans="6:9" ht="19" customHeight="1">
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+    </row>
+    <row r="18" spans="6:9" ht="19" customHeight="1">
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+    </row>
+    <row r="19" spans="6:9" ht="19" customHeight="1">
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="20" spans="6:9" ht="19" customHeight="1">
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+    </row>
+    <row r="21" spans="6:9" ht="19" customHeight="1">
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="6:9" ht="19" customHeight="1">
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+    </row>
+    <row r="23" spans="6:9" ht="19" customHeight="1">
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+    </row>
+    <row r="24" spans="6:9" ht="19" customHeight="1">
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+    </row>
+    <row r="25" spans="6:9" ht="19" customHeight="1">
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="6:9" ht="19" customHeight="1">
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+    </row>
+    <row r="27" spans="6:9" ht="19" customHeight="1">
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+    </row>
+    <row r="28" spans="6:9" ht="19" customHeight="1">
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+    </row>
+    <row r="29" spans="6:9" ht="19" customHeight="1">
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+    </row>
+    <row r="30" spans="6:9" ht="19" customHeight="1">
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="6:9" ht="19" customHeight="1">
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+    </row>
+    <row r="32" spans="6:9" ht="19" customHeight="1">
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+    </row>
+    <row r="33" spans="6:9" ht="19" customHeight="1">
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="6:9" ht="19" customHeight="1">
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="6:9" ht="19" customHeight="1">
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="6:9" ht="19" customHeight="1">
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+    </row>
+    <row r="37" spans="6:9" ht="19" customHeight="1">
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="6:9" ht="19" customHeight="1">
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+    </row>
+    <row r="39" spans="6:9" ht="19" customHeight="1">
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+    </row>
+    <row r="40" spans="6:9" ht="19" customHeight="1">
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" spans="6:9" ht="19" customHeight="1">
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="6:9" ht="19" customHeight="1">
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+    </row>
+    <row r="43" spans="6:9" ht="19" customHeight="1">
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="6:9" ht="19" customHeight="1">
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+    </row>
+    <row r="45" spans="6:9" ht="19" customHeight="1">
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+    </row>
+    <row r="46" spans="6:9" ht="19" customHeight="1">
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+    </row>
+    <row r="47" spans="6:9" ht="19" customHeight="1">
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+    </row>
+    <row r="48" spans="6:9" ht="19" customHeight="1">
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+    </row>
+    <row r="49" spans="6:9" ht="19" customHeight="1">
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+    </row>
+    <row r="50" spans="6:9" ht="19" customHeight="1">
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+    </row>
+    <row r="51" spans="6:9" ht="19" customHeight="1"/>
+    <row r="52" spans="6:9" ht="19" customHeight="1"/>
+    <row r="53" spans="6:9" ht="19" customHeight="1"/>
+    <row r="54" spans="6:9" ht="19" customHeight="1"/>
+    <row r="55" spans="6:9" ht="19" customHeight="1"/>
+    <row r="56" spans="6:9" ht="19" customHeight="1"/>
+    <row r="57" spans="6:9" ht="19" customHeight="1"/>
+    <row r="58" spans="6:9" ht="19" customHeight="1"/>
+    <row r="59" spans="6:9" ht="19" customHeight="1"/>
+    <row r="60" spans="6:9" ht="19" customHeight="1"/>
+    <row r="61" spans="6:9" ht="19" customHeight="1"/>
+    <row r="62" spans="6:9" ht="19" customHeight="1"/>
+    <row r="63" spans="6:9" ht="19" customHeight="1"/>
+    <row r="64" spans="6:9" ht="19" customHeight="1"/>
+    <row r="65" ht="19" customHeight="1"/>
+    <row r="66" ht="19" customHeight="1"/>
+    <row r="67" ht="19" customHeight="1"/>
+    <row r="68" ht="19" customHeight="1"/>
+    <row r="69" ht="19" customHeight="1"/>
+    <row r="70" ht="19" customHeight="1"/>
+    <row r="71" ht="19" customHeight="1"/>
+    <row r="72" ht="19" customHeight="1"/>
+    <row r="73" ht="19" customHeight="1"/>
+    <row r="74" ht="19" customHeight="1"/>
+    <row r="75" ht="19" customHeight="1"/>
+    <row r="76" ht="19" customHeight="1"/>
+    <row r="77" ht="19" customHeight="1"/>
+    <row r="78" ht="19" customHeight="1"/>
+    <row r="79" ht="19" customHeight="1"/>
+    <row r="80" ht="19" customHeight="1"/>
+    <row r="81" ht="19" customHeight="1"/>
+    <row r="82" ht="19" customHeight="1"/>
+    <row r="83" ht="19" customHeight="1"/>
+    <row r="84" ht="19" customHeight="1"/>
+    <row r="85" ht="19" customHeight="1"/>
+    <row r="86" ht="19" customHeight="1"/>
+    <row r="87" ht="19" customHeight="1"/>
+    <row r="88" ht="19" customHeight="1"/>
+    <row r="89" ht="19" customHeight="1"/>
+    <row r="90" ht="19" customHeight="1"/>
+    <row r="91" ht="19" customHeight="1"/>
+    <row r="92" ht="19" customHeight="1"/>
+    <row r="93" ht="19" customHeight="1"/>
+    <row r="94" ht="19" customHeight="1"/>
+    <row r="95" ht="19" customHeight="1"/>
+    <row r="96" ht="19" customHeight="1"/>
+    <row r="97" ht="19" customHeight="1"/>
+    <row r="98" ht="19" customHeight="1"/>
+    <row r="99" ht="19" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
+++ b/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9CD4B9-BC33-2F45-BD32-9043C5EC9AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C45623-76B6-5340-AC3A-6F2790D533F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="520" windowWidth="25600" windowHeight="21100" activeTab="3" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="25600" yWindow="520" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="76">
   <si>
     <t>Project Manager:</t>
   </si>
@@ -167,9 +167,6 @@
     <t>{#p=d.project}</t>
   </si>
   <si>
-    <t>{#a=d.alignment}</t>
-  </si>
-  <si>
     <t>{#s=d.status}</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>{$p.project_name}</t>
   </si>
   <si>
-    <t>{$a.description}</t>
-  </si>
-  <si>
     <t>{$p.goals}</t>
   </si>
   <si>
@@ -270,6 +264,9 @@
   </si>
   <si>
     <t>Reporting Date: {$prjstat.status_date}</t>
+  </si>
+  <si>
+    <t>{$p.strategic_alignment}</t>
   </si>
 </sst>
 </file>
@@ -1781,7 +1778,7 @@
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -1795,7 +1792,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -1813,9 +1810,6 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
       <c r="A4" s="5" t="s">
@@ -1828,13 +1822,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1864,19 +1858,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1905,13 +1899,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1961,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -1981,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -3613,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBFCAC8-5881-134F-AB09-DAB459246A80}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3623,12 +3617,12 @@
     <col min="2" max="2" width="25.33203125" style="34" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="34" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4" style="46" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="46" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="4" style="46" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="46" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="46" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="46" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
@@ -3641,21 +3635,21 @@
         <v>11</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="49"/>
       <c r="M1" s="38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="60" customFormat="1" ht="32" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="60" customFormat="1">
       <c r="A2" s="52" t="s">
         <v>15</v>
       </c>
@@ -3666,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>17</v>
@@ -4448,7 +4442,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22" customHeight="1">
@@ -4473,38 +4467,38 @@
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="I3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="J3" s="35" t="s">
         <v>69</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5045,7 +5039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D139B54-76DF-B047-B773-CF046491ECCD}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5079,32 +5073,32 @@
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="A3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
+++ b/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C45623-76B6-5340-AC3A-6F2790D533F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2ABDF-40F1-C942-9F8C-19A6BAB28A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="520" windowWidth="25600" windowHeight="21100" activeTab="1" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="25600" yWindow="520" windowWidth="25600" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -194,6 +194,9 @@
     <t>{$p.project_name}</t>
   </si>
   <si>
+    <t>{$a.description}</t>
+  </si>
+  <si>
     <t>{$p.goals}</t>
   </si>
   <si>
@@ -264,9 +267,6 @@
   </si>
   <si>
     <t>Reporting Date: {$prjstat.status_date}</t>
-  </si>
-  <si>
-    <t>{$p.strategic_alignment}</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1759,7 @@
   </sheetPr>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
@@ -1822,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -1975,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -3607,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBFCAC8-5881-134F-AB09-DAB459246A80}">
   <dimension ref="A1:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -3635,18 +3635,18 @@
         <v>11</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="49"/>
       <c r="M1" s="38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="60" customFormat="1">
@@ -3660,7 +3660,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="56" t="s">
         <v>17</v>
@@ -4442,7 +4442,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
       <c r="K1" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22" customHeight="1">
@@ -4467,38 +4467,38 @@
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5073,32 +5073,32 @@
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="A3" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
+++ b/backend/reports/xlsx/Tab_17_rpt_P_Status_MostRecent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A2ABDF-40F1-C942-9F8C-19A6BAB28A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0599183-0D21-A240-9527-FA99E1904589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="520" windowWidth="25600" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>{$p.project_name}</t>
   </si>
   <si>
-    <t>{$a.description}</t>
-  </si>
-  <si>
     <t>{$p.goals}</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Reporting Date: {$prjstat.status_date}</t>
+  </si>
+  <si>
+    <t>{$p.strategic_alignment}</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,24 +527,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -562,43 +544,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
@@ -608,15 +575,11 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -631,10 +594,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +606,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,372 +618,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FFFFFF00"/>
@@ -1775,14 +1408,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>41</v>
@@ -1791,24 +1424,24 @@
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1">
@@ -1822,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
@@ -1904,11 +1537,11 @@
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
@@ -1934,53 +1567,53 @@
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:8" ht="40">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="B14" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
@@ -3613,764 +3246,764 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="3.83203125" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="11.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="25" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="38" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" ht="21" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="54"/>
+      <c r="M1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="M1" s="38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="60" customFormat="1">
-      <c r="A2" s="52" t="s">
+    </row>
+    <row r="2" spans="1:13" s="45" customFormat="1">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:13" s="43" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" s="43" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="44" t="s">
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="1:13" s="43" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:13" s="43" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:13" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="F11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:13" s="39" customFormat="1">
-      <c r="F12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="J12" s="40"/>
-    </row>
-    <row r="13" spans="1:13" s="39" customFormat="1">
-      <c r="F13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" s="39" customFormat="1">
-      <c r="F14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:13" s="39" customFormat="1">
-      <c r="F15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:13" s="39" customFormat="1">
-      <c r="F16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="J16" s="40"/>
-    </row>
-    <row r="17" spans="6:10" s="39" customFormat="1">
-      <c r="F17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="J17" s="40"/>
-    </row>
-    <row r="18" spans="6:10" s="39" customFormat="1">
-      <c r="F18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="J18" s="40"/>
-    </row>
-    <row r="19" spans="6:10" s="39" customFormat="1">
-      <c r="F19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="J19" s="40"/>
-    </row>
-    <row r="20" spans="6:10" s="39" customFormat="1">
-      <c r="F20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="6:10" s="39" customFormat="1">
-      <c r="F21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" spans="6:10" s="39" customFormat="1">
-      <c r="F22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="6:10" s="39" customFormat="1">
-      <c r="F23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="J23" s="40"/>
-    </row>
-    <row r="24" spans="6:10" s="39" customFormat="1">
-      <c r="F24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="J24" s="40"/>
-    </row>
-    <row r="25" spans="6:10" s="39" customFormat="1">
-      <c r="F25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="J25" s="40"/>
-    </row>
-    <row r="26" spans="6:10" s="39" customFormat="1">
-      <c r="F26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="6:10" s="39" customFormat="1">
-      <c r="F27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="6:10" s="39" customFormat="1">
-      <c r="F28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="6:10" s="39" customFormat="1">
-      <c r="F29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="J29" s="40"/>
-    </row>
-    <row r="30" spans="6:10" s="39" customFormat="1">
-      <c r="F30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="J30" s="40"/>
-    </row>
-    <row r="31" spans="6:10" s="39" customFormat="1">
-      <c r="F31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="6:10" s="39" customFormat="1">
-      <c r="F32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="J32" s="40"/>
-    </row>
-    <row r="33" spans="6:10" s="39" customFormat="1">
-      <c r="F33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="6:10" s="39" customFormat="1">
-      <c r="F34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="6:10" s="39" customFormat="1">
-      <c r="F35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="6:10" s="39" customFormat="1">
-      <c r="F36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="J36" s="40"/>
-    </row>
-    <row r="37" spans="6:10" s="39" customFormat="1">
-      <c r="F37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="6:10" s="39" customFormat="1">
-      <c r="F38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="6:10" s="39" customFormat="1">
-      <c r="F39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="6:10" s="39" customFormat="1">
-      <c r="F40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="6:10" s="39" customFormat="1">
-      <c r="F41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="J41" s="40"/>
-    </row>
-    <row r="42" spans="6:10" s="39" customFormat="1">
-      <c r="F42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="J42" s="40"/>
-    </row>
-    <row r="43" spans="6:10" s="39" customFormat="1">
-      <c r="F43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="J43" s="40"/>
-    </row>
-    <row r="44" spans="6:10" s="39" customFormat="1">
-      <c r="F44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="J44" s="40"/>
-    </row>
-    <row r="45" spans="6:10" s="39" customFormat="1">
-      <c r="F45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="J45" s="40"/>
-    </row>
-    <row r="46" spans="6:10" s="39" customFormat="1">
-      <c r="F46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="J46" s="40"/>
-    </row>
-    <row r="47" spans="6:10" s="39" customFormat="1">
-      <c r="F47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="J47" s="40"/>
-    </row>
-    <row r="48" spans="6:10" s="39" customFormat="1">
-      <c r="F48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="J48" s="40"/>
-    </row>
-    <row r="49" spans="6:10" s="39" customFormat="1">
-      <c r="F49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="J49" s="40"/>
-    </row>
-    <row r="50" spans="6:10" s="39" customFormat="1">
-      <c r="F50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="J50" s="40"/>
-    </row>
-    <row r="51" spans="6:10" s="39" customFormat="1">
-      <c r="F51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="J51" s="40"/>
-    </row>
-    <row r="52" spans="6:10" s="39" customFormat="1">
-      <c r="F52" s="45"/>
-      <c r="H52" s="45"/>
-      <c r="J52" s="40"/>
-    </row>
-    <row r="53" spans="6:10" s="39" customFormat="1">
-      <c r="F53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="J53" s="40"/>
-    </row>
-    <row r="54" spans="6:10" s="39" customFormat="1">
-      <c r="F54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="J54" s="40"/>
-    </row>
-    <row r="55" spans="6:10" s="39" customFormat="1">
-      <c r="F55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="J55" s="40"/>
-    </row>
-    <row r="56" spans="6:10" s="39" customFormat="1">
-      <c r="F56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="J56" s="40"/>
-    </row>
-    <row r="57" spans="6:10" s="39" customFormat="1">
-      <c r="F57" s="45"/>
-      <c r="H57" s="45"/>
-      <c r="J57" s="40"/>
-    </row>
-    <row r="58" spans="6:10" s="39" customFormat="1">
-      <c r="F58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="J58" s="40"/>
-    </row>
-    <row r="59" spans="6:10" s="39" customFormat="1">
-      <c r="F59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="J59" s="40"/>
-    </row>
-    <row r="60" spans="6:10" s="39" customFormat="1">
-      <c r="F60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="J60" s="40"/>
-    </row>
-    <row r="61" spans="6:10" s="39" customFormat="1">
-      <c r="F61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="J61" s="40"/>
-    </row>
-    <row r="62" spans="6:10" s="39" customFormat="1">
-      <c r="F62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="J62" s="40"/>
-    </row>
-    <row r="63" spans="6:10" s="39" customFormat="1">
-      <c r="F63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="J63" s="40"/>
-    </row>
-    <row r="64" spans="6:10" s="39" customFormat="1">
-      <c r="F64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="J64" s="40"/>
-    </row>
-    <row r="65" spans="6:10" s="39" customFormat="1">
-      <c r="F65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="J65" s="40"/>
-    </row>
-    <row r="66" spans="6:10" s="39" customFormat="1">
-      <c r="F66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="J66" s="40"/>
-    </row>
-    <row r="67" spans="6:10" s="39" customFormat="1">
-      <c r="F67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="J67" s="40"/>
-    </row>
-    <row r="68" spans="6:10" s="39" customFormat="1">
-      <c r="F68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="J68" s="40"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" s="28" customFormat="1" ht="21" customHeight="1">
+      <c r="F11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" s="28" customFormat="1">
+      <c r="F12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" s="28" customFormat="1">
+      <c r="F13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" s="28" customFormat="1">
+      <c r="F14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" s="28" customFormat="1">
+      <c r="F15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" s="28" customFormat="1">
+      <c r="F16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="6:10" s="28" customFormat="1">
+      <c r="F17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="6:10" s="28" customFormat="1">
+      <c r="F18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="6:10" s="28" customFormat="1">
+      <c r="F19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="6:10" s="28" customFormat="1">
+      <c r="F20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="6:10" s="28" customFormat="1">
+      <c r="F21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="6:10" s="28" customFormat="1">
+      <c r="F22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="6:10" s="28" customFormat="1">
+      <c r="F23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="6:10" s="28" customFormat="1">
+      <c r="F24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="6:10" s="28" customFormat="1">
+      <c r="F25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="6:10" s="28" customFormat="1">
+      <c r="F26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="6:10" s="28" customFormat="1">
+      <c r="F27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="6:10" s="28" customFormat="1">
+      <c r="F28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="6:10" s="28" customFormat="1">
+      <c r="F29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="6:10" s="28" customFormat="1">
+      <c r="F30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="6:10" s="28" customFormat="1">
+      <c r="F31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="6:10" s="28" customFormat="1">
+      <c r="F32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="6:10" s="28" customFormat="1">
+      <c r="F33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="6:10" s="28" customFormat="1">
+      <c r="F34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="6:10" s="28" customFormat="1">
+      <c r="F35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="6:10" s="28" customFormat="1">
+      <c r="F36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="6:10" s="28" customFormat="1">
+      <c r="F37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="6:10" s="28" customFormat="1">
+      <c r="F38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="J38" s="29"/>
+    </row>
+    <row r="39" spans="6:10" s="28" customFormat="1">
+      <c r="F39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="6:10" s="28" customFormat="1">
+      <c r="F40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="J40" s="29"/>
+    </row>
+    <row r="41" spans="6:10" s="28" customFormat="1">
+      <c r="F41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="6:10" s="28" customFormat="1">
+      <c r="F42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="6:10" s="28" customFormat="1">
+      <c r="F43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="6:10" s="28" customFormat="1">
+      <c r="F44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="6:10" s="28" customFormat="1">
+      <c r="F45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="6:10" s="28" customFormat="1">
+      <c r="F46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="6:10" s="28" customFormat="1">
+      <c r="F47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="6:10" s="28" customFormat="1">
+      <c r="F48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="6:10" s="28" customFormat="1">
+      <c r="F49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="J49" s="29"/>
+    </row>
+    <row r="50" spans="6:10" s="28" customFormat="1">
+      <c r="F50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="J50" s="29"/>
+    </row>
+    <row r="51" spans="6:10" s="28" customFormat="1">
+      <c r="F51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="6:10" s="28" customFormat="1">
+      <c r="F52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="J52" s="29"/>
+    </row>
+    <row r="53" spans="6:10" s="28" customFormat="1">
+      <c r="F53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="J53" s="29"/>
+    </row>
+    <row r="54" spans="6:10" s="28" customFormat="1">
+      <c r="F54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="6:10" s="28" customFormat="1">
+      <c r="F55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="J55" s="29"/>
+    </row>
+    <row r="56" spans="6:10" s="28" customFormat="1">
+      <c r="F56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="J56" s="29"/>
+    </row>
+    <row r="57" spans="6:10" s="28" customFormat="1">
+      <c r="F57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="6:10" s="28" customFormat="1">
+      <c r="F58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="J58" s="29"/>
+    </row>
+    <row r="59" spans="6:10" s="28" customFormat="1">
+      <c r="F59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="J59" s="29"/>
+    </row>
+    <row r="60" spans="6:10" s="28" customFormat="1">
+      <c r="F60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="6:10" s="28" customFormat="1">
+      <c r="F61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="6:10" s="28" customFormat="1">
+      <c r="F62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="6:10" s="28" customFormat="1">
+      <c r="F63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="6:10" s="28" customFormat="1">
+      <c r="F64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="J64" s="29"/>
+    </row>
+    <row r="65" spans="6:10" s="28" customFormat="1">
+      <c r="F65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="J65" s="29"/>
+    </row>
+    <row r="66" spans="6:10" s="28" customFormat="1">
+      <c r="F66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="6:10" s="28" customFormat="1">
+      <c r="F67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="6:10" s="28" customFormat="1">
+      <c r="F68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="6:10">
-      <c r="J69" s="47"/>
+      <c r="J69" s="34"/>
     </row>
     <row r="70" spans="6:10">
-      <c r="J70" s="47"/>
+      <c r="J70" s="34"/>
     </row>
     <row r="71" spans="6:10">
-      <c r="J71" s="47"/>
+      <c r="J71" s="34"/>
     </row>
     <row r="72" spans="6:10">
-      <c r="J72" s="47"/>
+      <c r="J72" s="34"/>
     </row>
     <row r="73" spans="6:10">
-      <c r="J73" s="47"/>
+      <c r="J73" s="34"/>
     </row>
     <row r="74" spans="6:10">
-      <c r="J74" s="47"/>
+      <c r="J74" s="34"/>
     </row>
     <row r="75" spans="6:10">
-      <c r="J75" s="47"/>
+      <c r="J75" s="34"/>
     </row>
     <row r="76" spans="6:10">
-      <c r="J76" s="47"/>
+      <c r="J76" s="34"/>
     </row>
     <row r="77" spans="6:10">
-      <c r="J77" s="47"/>
+      <c r="J77" s="34"/>
     </row>
     <row r="78" spans="6:10">
-      <c r="J78" s="47"/>
+      <c r="J78" s="34"/>
     </row>
     <row r="79" spans="6:10">
-      <c r="J79" s="47"/>
+      <c r="J79" s="34"/>
     </row>
     <row r="80" spans="6:10">
-      <c r="J80" s="47"/>
+      <c r="J80" s="34"/>
     </row>
     <row r="81" spans="10:10">
-      <c r="J81" s="47"/>
+      <c r="J81" s="34"/>
     </row>
     <row r="82" spans="10:10">
-      <c r="J82" s="47"/>
+      <c r="J82" s="34"/>
     </row>
     <row r="83" spans="10:10">
-      <c r="J83" s="47"/>
+      <c r="J83" s="34"/>
     </row>
     <row r="84" spans="10:10">
-      <c r="J84" s="47"/>
+      <c r="J84" s="34"/>
     </row>
     <row r="85" spans="10:10">
-      <c r="J85" s="47"/>
+      <c r="J85" s="34"/>
     </row>
     <row r="86" spans="10:10">
-      <c r="J86" s="47"/>
+      <c r="J86" s="34"/>
     </row>
     <row r="87" spans="10:10">
-      <c r="J87" s="47"/>
+      <c r="J87" s="34"/>
     </row>
     <row r="88" spans="10:10">
-      <c r="J88" s="47"/>
+      <c r="J88" s="34"/>
     </row>
     <row r="89" spans="10:10">
-      <c r="J89" s="47"/>
+      <c r="J89" s="34"/>
     </row>
     <row r="90" spans="10:10">
-      <c r="J90" s="47"/>
+      <c r="J90" s="34"/>
     </row>
     <row r="91" spans="10:10">
-      <c r="J91" s="47"/>
+      <c r="J91" s="34"/>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="47"/>
+      <c r="J92" s="34"/>
     </row>
     <row r="93" spans="10:10">
-      <c r="J93" s="47"/>
+      <c r="J93" s="34"/>
     </row>
     <row r="94" spans="10:10">
-      <c r="J94" s="47"/>
+      <c r="J94" s="34"/>
     </row>
     <row r="95" spans="10:10">
-      <c r="J95" s="47"/>
+      <c r="J95" s="34"/>
     </row>
     <row r="96" spans="10:10">
-      <c r="J96" s="47"/>
+      <c r="J96" s="34"/>
     </row>
     <row r="97" spans="10:10">
-      <c r="J97" s="47"/>
+      <c r="J97" s="34"/>
     </row>
     <row r="98" spans="10:10">
-      <c r="J98" s="47"/>
+      <c r="J98" s="34"/>
     </row>
     <row r="99" spans="10:10">
-      <c r="J99" s="47"/>
+      <c r="J99" s="34"/>
     </row>
     <row r="100" spans="10:10">
-      <c r="J100" s="47"/>
+      <c r="J100" s="34"/>
     </row>
     <row r="101" spans="10:10">
-      <c r="J101" s="47"/>
+      <c r="J101" s="34"/>
     </row>
     <row r="102" spans="10:10">
-      <c r="J102" s="47"/>
+      <c r="J102" s="34"/>
     </row>
     <row r="103" spans="10:10">
-      <c r="J103" s="47"/>
+      <c r="J103" s="34"/>
     </row>
     <row r="104" spans="10:10">
-      <c r="J104" s="47"/>
+      <c r="J104" s="34"/>
     </row>
     <row r="105" spans="10:10">
-      <c r="J105" s="47"/>
+      <c r="J105" s="34"/>
     </row>
     <row r="106" spans="10:10">
-      <c r="J106" s="47"/>
+      <c r="J106" s="34"/>
     </row>
     <row r="107" spans="10:10">
-      <c r="J107" s="47"/>
+      <c r="J107" s="34"/>
     </row>
     <row r="108" spans="10:10">
-      <c r="J108" s="47"/>
+      <c r="J108" s="34"/>
     </row>
     <row r="109" spans="10:10">
-      <c r="J109" s="47"/>
+      <c r="J109" s="34"/>
     </row>
     <row r="110" spans="10:10">
-      <c r="J110" s="47"/>
+      <c r="J110" s="34"/>
     </row>
     <row r="111" spans="10:10">
-      <c r="J111" s="47"/>
+      <c r="J111" s="34"/>
     </row>
     <row r="112" spans="10:10">
-      <c r="J112" s="47"/>
+      <c r="J112" s="34"/>
     </row>
     <row r="113" spans="10:10">
-      <c r="J113" s="47"/>
+      <c r="J113" s="34"/>
     </row>
     <row r="114" spans="10:10">
-      <c r="J114" s="47"/>
+      <c r="J114" s="34"/>
     </row>
     <row r="115" spans="10:10">
-      <c r="J115" s="47"/>
+      <c r="J115" s="34"/>
     </row>
     <row r="116" spans="10:10">
-      <c r="J116" s="47"/>
+      <c r="J116" s="34"/>
     </row>
     <row r="117" spans="10:10">
-      <c r="J117" s="47"/>
+      <c r="J117" s="34"/>
     </row>
     <row r="118" spans="10:10">
-      <c r="J118" s="47"/>
+      <c r="J118" s="34"/>
     </row>
     <row r="119" spans="10:10">
-      <c r="J119" s="47"/>
+      <c r="J119" s="34"/>
     </row>
     <row r="120" spans="10:10">
-      <c r="J120" s="47"/>
+      <c r="J120" s="34"/>
     </row>
     <row r="121" spans="10:10">
-      <c r="J121" s="47"/>
+      <c r="J121" s="34"/>
     </row>
     <row r="122" spans="10:10">
-      <c r="J122" s="47"/>
+      <c r="J122" s="34"/>
     </row>
     <row r="123" spans="10:10">
-      <c r="J123" s="47"/>
+      <c r="J123" s="34"/>
     </row>
     <row r="124" spans="10:10">
-      <c r="J124" s="47"/>
+      <c r="J124" s="34"/>
     </row>
     <row r="125" spans="10:10">
-      <c r="J125" s="47"/>
+      <c r="J125" s="34"/>
     </row>
     <row r="126" spans="10:10">
-      <c r="J126" s="47"/>
+      <c r="J126" s="34"/>
     </row>
     <row r="127" spans="10:10">
-      <c r="J127" s="47"/>
+      <c r="J127" s="34"/>
     </row>
     <row r="128" spans="10:10">
-      <c r="J128" s="47"/>
+      <c r="J128" s="34"/>
     </row>
     <row r="129" spans="10:10">
-      <c r="J129" s="47"/>
+      <c r="J129" s="34"/>
     </row>
     <row r="130" spans="10:10">
-      <c r="J130" s="47"/>
+      <c r="J130" s="34"/>
     </row>
     <row r="131" spans="10:10">
-      <c r="J131" s="47"/>
+      <c r="J131" s="34"/>
     </row>
     <row r="132" spans="10:10">
-      <c r="J132" s="47"/>
+      <c r="J132" s="34"/>
     </row>
     <row r="133" spans="10:10">
-      <c r="J133" s="47"/>
+      <c r="J133" s="34"/>
     </row>
     <row r="134" spans="10:10">
-      <c r="J134" s="47"/>
+      <c r="J134" s="34"/>
     </row>
     <row r="135" spans="10:10">
-      <c r="J135" s="47"/>
+      <c r="J135" s="34"/>
     </row>
     <row r="136" spans="10:10">
-      <c r="J136" s="47"/>
+      <c r="J136" s="34"/>
     </row>
     <row r="137" spans="10:10">
-      <c r="J137" s="47"/>
+      <c r="J137" s="34"/>
     </row>
     <row r="138" spans="10:10">
-      <c r="J138" s="47"/>
+      <c r="J138" s="34"/>
     </row>
     <row r="139" spans="10:10">
-      <c r="J139" s="47"/>
+      <c r="J139" s="34"/>
     </row>
     <row r="140" spans="10:10">
-      <c r="J140" s="47"/>
+      <c r="J140" s="34"/>
     </row>
     <row r="141" spans="10:10">
-      <c r="J141" s="47"/>
+      <c r="J141" s="34"/>
     </row>
     <row r="142" spans="10:10">
-      <c r="J142" s="47"/>
+      <c r="J142" s="34"/>
     </row>
     <row r="143" spans="10:10">
-      <c r="J143" s="47"/>
+      <c r="J143" s="34"/>
     </row>
     <row r="144" spans="10:10">
-      <c r="J144" s="47"/>
+      <c r="J144" s="34"/>
     </row>
     <row r="145" spans="10:10">
-      <c r="J145" s="47"/>
+      <c r="J145" s="34"/>
     </row>
     <row r="146" spans="10:10">
-      <c r="J146" s="47"/>
+      <c r="J146" s="34"/>
     </row>
     <row r="147" spans="10:10">
-      <c r="J147" s="47"/>
+      <c r="J147" s="34"/>
     </row>
     <row r="148" spans="10:10">
-      <c r="J148" s="47"/>
+      <c r="J148" s="34"/>
     </row>
     <row r="149" spans="10:10">
-      <c r="J149" s="47"/>
+      <c r="J149" s="34"/>
     </row>
     <row r="150" spans="10:10">
-      <c r="J150" s="47"/>
+      <c r="J150" s="34"/>
     </row>
     <row r="151" spans="10:10">
-      <c r="J151" s="47"/>
+      <c r="J151" s="34"/>
     </row>
     <row r="152" spans="10:10">
-      <c r="J152" s="47"/>
+      <c r="J152" s="34"/>
     </row>
     <row r="153" spans="10:10">
-      <c r="J153" s="47"/>
+      <c r="J153" s="34"/>
     </row>
     <row r="154" spans="10:10">
-      <c r="J154" s="47"/>
+      <c r="J154" s="34"/>
     </row>
     <row r="155" spans="10:10">
-      <c r="J155" s="47"/>
+      <c r="J155" s="34"/>
     </row>
     <row r="156" spans="10:10">
-      <c r="J156" s="47"/>
+      <c r="J156" s="34"/>
     </row>
     <row r="157" spans="10:10">
-      <c r="J157" s="47"/>
+      <c r="J157" s="34"/>
     </row>
     <row r="158" spans="10:10">
-      <c r="J158" s="47"/>
+      <c r="J158" s="34"/>
     </row>
     <row r="159" spans="10:10">
-      <c r="J159" s="47"/>
+      <c r="J159" s="34"/>
     </row>
     <row r="160" spans="10:10">
-      <c r="J160" s="47"/>
+      <c r="J160" s="34"/>
     </row>
     <row r="161" spans="10:10">
-      <c r="J161" s="47"/>
+      <c r="J161" s="34"/>
     </row>
     <row r="162" spans="10:10">
-      <c r="J162" s="47"/>
+      <c r="J162" s="34"/>
     </row>
     <row r="163" spans="10:10">
-      <c r="J163" s="47"/>
+      <c r="J163" s="34"/>
     </row>
     <row r="164" spans="10:10">
-      <c r="J164" s="47"/>
+      <c r="J164" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4384,7 +4017,7 @@
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
   </mergeCells>
-  <conditionalFormatting sqref="A11 J11:XFD11 I1 K1:XFD1 A1:E1 A12:XFD1048576 A2:XFD10">
+  <conditionalFormatting sqref="A1:E1 I1 K1:XFD1 A2:XFD10 A11 J11:XFD11 A12:XFD1048576">
     <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>AND(ISNUMBER(FIND(",",A1)),VALUE(LEFT(A1,FIND(",",A1)-1))=255,VALUE(MID(A1,FIND(",",A1)+1,FIND(",",A1, FIND(",",A1)+1)-FIND(",",A1)-1))=255,VALUE(MID(A1,FIND(",",A1, FIND(",",A1)+1)+1,LEN(A1)-FIND(",",A1, FIND(",",A1)+1)))=255)</formula>
     </cfRule>
@@ -4421,28 +4054,28 @@
     <col min="4" max="4" width="23.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="32"/>
+    <col min="7" max="7" width="13.33203125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="24"/>
     <col min="9" max="9" width="10.83203125" style="4"/>
-    <col min="10" max="10" width="4.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="4" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="22" customHeight="1">
@@ -4459,547 +4092,485 @@
       <c r="G2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="22" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="22" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="22" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22" customHeight="1">
+      <c r="A4" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="22" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:11" ht="22" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:11" ht="22" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="22" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:11" ht="22" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:11" ht="22" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:11" ht="22" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:11" ht="22" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="22" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
     </row>
     <row r="13" spans="1:11" ht="22" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="22" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="22" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:11" ht="22" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
     </row>
     <row r="17" spans="1:4" ht="22" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
     </row>
     <row r="18" spans="1:4" ht="22" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="1:4" ht="22" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
@@ -5013,6 +4584,68 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J1048576">
     <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
@@ -5047,302 +4680,302 @@
   <cols>
     <col min="1" max="1" width="49.5" customWidth="1"/>
     <col min="2" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6" style="36" customWidth="1"/>
+    <col min="5" max="5" width="6" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="27"/>
+      <c r="A5" s="21"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27"/>
+      <c r="A6" s="21"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="27"/>
+      <c r="A8" s="21"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="27"/>
+      <c r="A9" s="21"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27"/>
+      <c r="A10" s="21"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
+      <c r="A11" s="21"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
+      <c r="A12" s="21"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="27"/>
+      <c r="A13" s="21"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
+      <c r="A14" s="21"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
+      <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27"/>
+      <c r="A16" s="21"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="21"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="21"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="21"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="21"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="21"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="21"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="27"/>
+      <c r="A24" s="21"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="21"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="21"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="21"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="27"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="27"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="21"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="27"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="27"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="27"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="27"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="27"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="27"/>
+      <c r="A45" s="21"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="27"/>
+      <c r="A46" s="21"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="21"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="27"/>
+      <c r="A48" s="21"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="27"/>
+      <c r="A49" s="21"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="27"/>
+      <c r="A50" s="21"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="27"/>
+      <c r="A51" s="21"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="27"/>
+      <c r="A52" s="21"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="27"/>
+      <c r="A53" s="21"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="27"/>
+      <c r="A54" s="21"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="27"/>
+      <c r="A55" s="21"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="27"/>
+      <c r="A56" s="21"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="27"/>
+      <c r="A57" s="21"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="27"/>
+      <c r="A58" s="21"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="27"/>
+      <c r="A59" s="21"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="27"/>
+      <c r="A60" s="21"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="27"/>
+      <c r="A61" s="21"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="27"/>
+      <c r="A62" s="21"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="27"/>
+      <c r="A63" s="21"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="27"/>
+      <c r="A64" s="21"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="27"/>
+      <c r="A65" s="21"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="27"/>
+      <c r="A66" s="21"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="27"/>
+      <c r="A67" s="21"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="27"/>
+      <c r="A68" s="21"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="27"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="27"/>
+      <c r="A70" s="21"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="27"/>
+      <c r="A71" s="21"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="27"/>
+      <c r="A72" s="21"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="27"/>
+      <c r="A73" s="21"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="27"/>
+      <c r="A74" s="21"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="27"/>
+      <c r="A75" s="21"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="27"/>
+      <c r="A76" s="21"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="27"/>
+      <c r="A77" s="21"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="27"/>
+      <c r="A78" s="21"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="27"/>
+      <c r="A79" s="21"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="27"/>
+      <c r="A80" s="21"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="27"/>
+      <c r="A81" s="21"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="27"/>
+      <c r="A82" s="21"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="27"/>
+      <c r="A83" s="21"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="27"/>
+      <c r="A84" s="21"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="27"/>
+      <c r="A85" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E1048576">
